--- a/public/template/template_jurnal.xlsx
+++ b/public/template/template_jurnal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skripsi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon\www\SIKOPDIT\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>Biaya Administrasi/Pajak Bank</t>
   </si>
@@ -505,6 +504,9 @@
   </si>
   <si>
     <t>01/31/2025</t>
+  </si>
+  <si>
+    <t>Dana Administrasi</t>
   </si>
 </sst>
 </file>
@@ -512,8 +514,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="175" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -592,14 +594,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1121,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C27" s="6">
         <v>200000</v>
@@ -1127,7 +1129,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="6">
         <v>200000</v>
@@ -1135,7 +1137,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="6">
         <v>200000</v>
@@ -1143,7 +1145,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="6">
         <v>200000</v>
@@ -1151,7 +1153,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="6">
         <v>200000</v>
@@ -1159,7 +1161,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="6">
         <v>200000</v>
@@ -1167,7 +1169,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="6">
         <v>200000</v>
@@ -1175,7 +1177,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C34" s="6">
         <v>200000</v>
@@ -1183,7 +1185,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C35" s="6">
         <v>200000</v>
@@ -1191,7 +1193,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="6">
         <v>200000</v>
@@ -1199,7 +1201,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="6">
         <v>200000</v>
@@ -1207,7 +1209,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="6">
         <v>200000</v>
@@ -1215,7 +1217,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" s="6">
         <v>200000</v>
@@ -1223,7 +1225,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="6">
         <v>200000</v>
@@ -1231,7 +1233,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41" s="6">
         <v>200000</v>
@@ -1239,7 +1241,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" s="6">
         <v>200000</v>
@@ -1247,7 +1249,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" s="6">
         <v>200000</v>
@@ -1255,7 +1257,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C44" s="6">
         <v>200000</v>
@@ -1263,7 +1265,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C45" s="6">
         <v>200000</v>
@@ -1271,7 +1273,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C46" s="6">
         <v>200000</v>
@@ -1279,7 +1281,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C47" s="6">
         <v>200000</v>
@@ -1287,7 +1289,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="C48" s="6">
         <v>200000</v>
@@ -1295,7 +1297,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" s="6">
         <v>200000</v>
@@ -1303,15 +1305,16 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="6">
@@ -1320,7 +1323,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="6">
@@ -1329,7 +1332,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="6">
@@ -1338,7 +1341,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="6">
@@ -1347,7 +1350,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="6">
@@ -1356,7 +1359,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="6">
@@ -1365,7 +1368,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="6">
@@ -1374,7 +1377,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="6">
@@ -1383,7 +1386,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="6">
@@ -1392,7 +1395,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="6">
@@ -1401,7 +1404,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="6">
@@ -1410,7 +1413,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="6">
@@ -1419,7 +1422,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="6">
@@ -1428,7 +1431,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="6">
@@ -1437,7 +1440,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="6">
@@ -1446,16 +1449,15 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>28</v>
+      </c>
       <c r="D66" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="6">
         <v>200000</v>
@@ -1463,7 +1465,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="6">
         <v>200000</v>
@@ -1471,7 +1473,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" s="6">
         <v>200000</v>
@@ -1479,7 +1481,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="6">
         <v>200000</v>
@@ -1487,7 +1489,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" s="6">
         <v>200000</v>
@@ -1495,7 +1497,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" s="6">
         <v>200000</v>
@@ -1503,7 +1505,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D73" s="6">
         <v>200000</v>
@@ -1511,7 +1513,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="6">
         <v>200000</v>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="6">
         <v>200000</v>
@@ -1527,7 +1529,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" s="6">
         <v>200000</v>
@@ -1535,7 +1537,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="6">
         <v>200000</v>
@@ -1543,7 +1545,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" s="6">
         <v>200000</v>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="6">
         <v>200000</v>
@@ -1559,7 +1561,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="6">
         <v>200000</v>
@@ -1567,7 +1569,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="6">
         <v>200000</v>
@@ -1575,7 +1577,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="6">
         <v>200000</v>
@@ -1583,7 +1585,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="6">
         <v>200000</v>
@@ -1591,7 +1593,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="6">
         <v>200000</v>
@@ -1599,7 +1601,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D85" s="6">
         <v>200000</v>
@@ -1607,7 +1609,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D86" s="6">
         <v>200000</v>
@@ -1615,7 +1617,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87" s="6">
         <v>200000</v>
@@ -1623,7 +1625,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D88" s="6">
         <v>200000</v>
@@ -1631,7 +1633,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D89" s="6">
         <v>200000</v>
@@ -1639,7 +1641,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D90" s="6">
         <v>200000</v>
@@ -1647,7 +1649,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91" s="6">
         <v>200000</v>
@@ -1655,7 +1657,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D92" s="6">
         <v>200000</v>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D93" s="6">
         <v>200000</v>
@@ -1671,7 +1673,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D94" s="6">
         <v>200000</v>
@@ -1679,7 +1681,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D95" s="6">
         <v>200000</v>
@@ -1687,7 +1689,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D96" s="6">
         <v>200000</v>
@@ -1695,7 +1697,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D97" s="6">
         <v>200000</v>
@@ -1703,7 +1705,7 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D98" s="6">
         <v>200000</v>
@@ -1711,7 +1713,7 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D99" s="6">
         <v>200000</v>
@@ -1719,7 +1721,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D100" s="6">
         <v>200000</v>
@@ -1727,7 +1729,7 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D101" s="6">
         <v>200000</v>
@@ -1735,7 +1737,7 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D102" s="6">
         <v>200000</v>
@@ -1743,7 +1745,7 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D103" s="6">
         <v>200000</v>
@@ -1751,7 +1753,7 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D104" s="6">
         <v>200000</v>
@@ -1759,7 +1761,7 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D105" s="6">
         <v>200000</v>
@@ -1767,7 +1769,7 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="6">
         <v>200000</v>
@@ -1775,7 +1777,7 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="6">
         <v>200000</v>
@@ -1783,7 +1785,7 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" s="6">
         <v>200000</v>
@@ -1791,7 +1793,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="6">
         <v>200000</v>
@@ -1799,7 +1801,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D110" s="6">
         <v>200000</v>
@@ -1807,7 +1809,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D111" s="6">
         <v>200000</v>
@@ -1815,7 +1817,7 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D112" s="6">
         <v>200000</v>
@@ -1823,7 +1825,7 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D113" s="6">
         <v>200000</v>
@@ -1831,7 +1833,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D114" s="6">
         <v>200000</v>
@@ -1839,7 +1841,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D115" s="6">
         <v>200000</v>
@@ -1847,7 +1849,7 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D116" s="6">
         <v>200000</v>
@@ -1855,7 +1857,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D117" s="6">
         <v>200000</v>
@@ -1863,7 +1865,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D118" s="6">
         <v>200000</v>
@@ -1871,7 +1873,7 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D119" s="6">
         <v>200000</v>
@@ -1879,7 +1881,7 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" s="6">
         <v>200000</v>
@@ -1887,7 +1889,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D121" s="6">
         <v>200000</v>
@@ -1895,7 +1897,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D122" s="6">
         <v>200000</v>
@@ -1903,7 +1905,7 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D123" s="6">
         <v>200000</v>
@@ -1911,7 +1913,7 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D124" s="6">
         <v>200000</v>
@@ -1919,7 +1921,7 @@
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D125" s="6">
         <v>200000</v>
@@ -1927,7 +1929,7 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D126" s="6">
         <v>200000</v>
@@ -1935,7 +1937,7 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D127" s="6">
         <v>200000</v>
@@ -1943,7 +1945,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D128" s="6">
         <v>200000</v>
@@ -1951,7 +1953,7 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D129" s="6">
         <v>200000</v>
@@ -1959,7 +1961,7 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D130" s="6">
         <v>200000</v>
@@ -1967,7 +1969,7 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D131" s="6">
         <v>200000</v>
@@ -1975,7 +1977,7 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D132" s="6">
         <v>200000</v>
@@ -1983,7 +1985,7 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D133" s="6">
         <v>200000</v>
@@ -1991,7 +1993,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D134" s="6">
         <v>200000</v>
@@ -1999,7 +2001,7 @@
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D135" s="6">
         <v>200000</v>
@@ -2007,7 +2009,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D136" s="6">
         <v>200000</v>
@@ -2015,7 +2017,7 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D137" s="6">
         <v>200000</v>
@@ -2023,7 +2025,7 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D138" s="6">
         <v>200000</v>
@@ -2031,7 +2033,7 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D139" s="6">
         <v>200000</v>
@@ -2039,7 +2041,7 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D140" s="6">
         <v>200000</v>
@@ -2047,7 +2049,7 @@
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D141" s="6">
         <v>200000</v>
@@ -2055,7 +2057,7 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" s="6">
         <v>200000</v>
@@ -2063,7 +2065,7 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D143" s="6">
         <v>200000</v>
@@ -2071,7 +2073,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D144" s="6">
         <v>200000</v>
@@ -2079,7 +2081,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D145" s="6">
         <v>200000</v>
@@ -2087,7 +2089,7 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D146" s="6">
         <v>200000</v>
@@ -2095,7 +2097,7 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D147" s="6">
         <v>200000</v>
@@ -2103,7 +2105,7 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D148" s="6">
         <v>200000</v>
@@ -2111,7 +2113,7 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D149" s="6">
         <v>200000</v>
@@ -2119,7 +2121,7 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D150" s="6">
         <v>200000</v>
@@ -2127,7 +2129,7 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D151" s="6">
         <v>200000</v>
@@ -2135,7 +2137,7 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D152" s="6">
         <v>200000</v>
@@ -2143,7 +2145,7 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D153" s="6">
         <v>200000</v>
@@ -2151,7 +2153,7 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D154" s="6">
         <v>200000</v>
@@ -2159,7 +2161,7 @@
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D155" s="6">
         <v>200000</v>
@@ -2167,23 +2169,23 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D156" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>75</v>
+      <c r="B157" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D157" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>107</v>
+      <c r="B158" t="s">
+        <v>160</v>
       </c>
       <c r="D158" s="6">
         <v>200000</v>

--- a/public/template/template_jurnal.xlsx
+++ b/public/template/template_jurnal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
   <si>
     <t>Biaya Administrasi/Pajak Bank</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Biaya Perawatan Inventaris</t>
   </si>
   <si>
-    <t>Dana Cadangan RAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cadangan Aktiva Produktif (CAP) </t>
   </si>
   <si>
@@ -504,9 +501,6 @@
   </si>
   <si>
     <t>01/31/2025</t>
-  </si>
-  <si>
-    <t>Dana Administrasi</t>
   </si>
 </sst>
 </file>
@@ -887,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,25 +897,25 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4">
         <v>200000</v>
@@ -929,7 +923,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6">
         <v>200000</v>
@@ -937,7 +931,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="6">
         <v>200000</v>
@@ -945,7 +939,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6">
         <v>200000</v>
@@ -953,7 +947,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="6">
         <v>200000</v>
@@ -961,7 +955,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6">
         <v>200000</v>
@@ -969,7 +963,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="6">
         <v>200000</v>
@@ -977,7 +971,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="6">
         <v>200000</v>
@@ -985,7 +979,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="6">
         <v>200000</v>
@@ -993,7 +987,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6">
         <v>200000</v>
@@ -1001,7 +995,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="6">
         <v>200000</v>
@@ -1009,7 +1003,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="6">
         <v>200000</v>
@@ -1017,7 +1011,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="6">
         <v>200000</v>
@@ -1025,7 +1019,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="6">
         <v>200000</v>
@@ -1033,7 +1027,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="6">
         <v>200000</v>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="6">
         <v>200000</v>
@@ -1049,7 +1043,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="6">
         <v>200000</v>
@@ -1057,7 +1051,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="6">
         <v>200000</v>
@@ -1065,7 +1059,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="6">
         <v>200000</v>
@@ -1073,7 +1067,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="6">
         <v>200000</v>
@@ -1081,7 +1075,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="6">
         <v>200000</v>
@@ -1089,7 +1083,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="6">
         <v>200000</v>
@@ -1097,7 +1091,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="6">
         <v>200000</v>
@@ -1105,7 +1099,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="6">
         <v>200000</v>
@@ -1113,7 +1107,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="6">
         <v>200000</v>
@@ -1121,7 +1115,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="6">
         <v>200000</v>
@@ -1129,7 +1123,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="6">
         <v>200000</v>
@@ -1137,7 +1131,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="6">
         <v>200000</v>
@@ -1145,7 +1139,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="6">
         <v>200000</v>
@@ -1153,7 +1147,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="6">
         <v>200000</v>
@@ -1161,7 +1155,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6">
         <v>200000</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="6">
         <v>200000</v>
@@ -1177,7 +1171,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="6">
         <v>200000</v>
@@ -1185,7 +1179,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="6">
         <v>200000</v>
@@ -1193,7 +1187,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="6">
         <v>200000</v>
@@ -1201,7 +1195,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="6">
         <v>200000</v>
@@ -1209,7 +1203,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="6">
         <v>200000</v>
@@ -1217,7 +1211,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="6">
         <v>200000</v>
@@ -1225,7 +1219,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="6">
         <v>200000</v>
@@ -1233,7 +1227,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="6">
         <v>200000</v>
@@ -1241,7 +1235,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="6">
         <v>200000</v>
@@ -1249,7 +1243,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="6">
         <v>200000</v>
@@ -1257,7 +1251,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="6">
         <v>200000</v>
@@ -1265,7 +1259,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="6">
         <v>200000</v>
@@ -1273,7 +1267,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="6">
         <v>200000</v>
@@ -1289,7 +1283,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48" s="6">
         <v>200000</v>
@@ -1297,7 +1291,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="6">
         <v>200000</v>
@@ -2176,20 +2170,11 @@
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D157" s="6">
-        <v>200000</v>
-      </c>
+      <c r="B157" s="1"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D158" s="6">
-        <v>200000</v>
-      </c>
+      <c r="D158" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/template_jurnal.xlsx
+++ b/public/template/template_jurnal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skripsi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon\www\SIKOPDIT\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>Tarik Titipan Dana RAT</t>
   </si>
   <si>
-    <t>Tarik Simpanan Wajib Penyertaan (SWP)</t>
-  </si>
-  <si>
     <t>Tarik Simpanan Wajib (SW)</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>Simpanan Wajib (SW)</t>
   </si>
   <si>
-    <t>Simpanan Wajib Penyertaan (SWP)</t>
-  </si>
-  <si>
     <t>Tarik Dana dari Bank</t>
   </si>
   <si>
@@ -492,6 +486,12 @@
   </si>
   <si>
     <t>THR Penjaga</t>
+  </si>
+  <si>
+    <t>Tarik Simpanan Wajib Pinjam (SWP)</t>
+  </si>
+  <si>
+    <t>Simpanan Wajib Pinjam (SWP)</t>
   </si>
 </sst>
 </file>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B92" sqref="A1:D154"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,25 +888,25 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4">
         <v>200000</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6">
         <v>200000</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6">
         <v>200000</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6">
         <v>200000</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6">
         <v>200000</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6">
         <v>200000</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6">
         <v>200000</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6">
         <v>200000</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6">
         <v>200000</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6">
         <v>200000</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="6">
         <v>200000</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="6">
         <v>200000</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6">
         <v>200000</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6">
         <v>200000</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6">
         <v>200000</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="C17" s="6">
         <v>200000</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="6">
         <v>200000</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="6">
         <v>200000</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="6">
         <v>200000</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="6">
         <v>200000</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="6">
         <v>200000</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6">
         <v>200000</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="6">
         <v>200000</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="6">
         <v>200000</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="6">
         <v>200000</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="6">
         <v>200000</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="6">
         <v>200000</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="6">
         <v>200000</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="6">
         <v>200000</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="6">
         <v>200000</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="6">
         <v>200000</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="6">
         <v>200000</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6">
         <v>200000</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="6">
         <v>200000</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="6">
         <v>200000</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="6">
         <v>200000</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C38" s="6">
         <v>200000</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="6">
         <v>200000</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="6">
         <v>200000</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="6">
         <v>200000</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="6">
         <v>200000</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C43" s="6">
         <v>200000</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="6">
         <v>200000</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="6">
         <v>200000</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C47" s="6">
         <v>200000</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="6">
         <v>200000</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="6">
@@ -1528,10 +1528,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="6">
@@ -1540,10 +1540,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="6">
@@ -1552,10 +1552,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="6">
@@ -1564,10 +1564,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="6">
@@ -1576,10 +1576,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="6">
@@ -1588,10 +1588,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="6">
@@ -1601,10 +1601,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="6">
         <v>200000</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="6">
         <v>200000</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="6">
         <v>200000</v>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="6">
         <v>200000</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="6">
         <v>200000</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="6">
         <v>200000</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="6">
         <v>200000</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" s="6">
         <v>200000</v>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" s="6">
         <v>200000</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="6">
         <v>200000</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="6">
         <v>200000</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="6">
         <v>200000</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="6">
         <v>200000</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="6">
         <v>200000</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="6">
         <v>200000</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>11</v>
       </c>
       <c r="D79" s="6">
         <v>200000</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" s="6">
         <v>200000</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="6">
         <v>200000</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D85" s="6">
         <v>200000</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D86" s="6">
         <v>200000</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D87" s="6">
         <v>200000</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D88" s="6">
         <v>200000</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D89" s="6">
         <v>200000</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D90" s="6">
         <v>200000</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D91" s="6">
         <v>200000</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" s="6">
         <v>200000</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D93" s="6">
         <v>200000</v>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D94" s="6">
         <v>200000</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D95" s="6">
         <v>200000</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D96" s="6">
         <v>200000</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D97" s="6">
         <v>200000</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D98" s="6">
         <v>200000</v>
@@ -1986,10 +1986,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D99" s="6">
         <v>200000</v>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D100" s="6">
         <v>200000</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D101" s="6">
         <v>200000</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D102" s="6">
         <v>200000</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D103" s="6">
         <v>200000</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D104" s="6">
         <v>200000</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D105" s="6">
         <v>200000</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D106" s="6">
         <v>200000</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D107" s="6">
         <v>200000</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D108" s="6">
         <v>200000</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D109" s="6">
         <v>200000</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D110" s="6">
         <v>200000</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D111" s="6">
         <v>200000</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D112" s="6">
         <v>200000</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D113" s="6">
         <v>200000</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D114" s="6">
         <v>200000</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D115" s="6">
         <v>200000</v>
@@ -2173,10 +2173,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D116" s="6">
         <v>200000</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" s="6">
         <v>200000</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D118" s="6">
         <v>200000</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D119" s="6">
         <v>200000</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D120" s="6">
         <v>200000</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D121" s="6">
         <v>200000</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D122" s="6">
         <v>200000</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D123" s="6">
         <v>200000</v>
@@ -2261,10 +2261,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D124" s="6">
         <v>200000</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D125" s="6">
         <v>200000</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D126" s="6">
         <v>200000</v>
@@ -2294,10 +2294,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="6">
         <v>200000</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" s="6">
         <v>200000</v>
@@ -2316,10 +2316,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D129" s="6">
         <v>200000</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D130" s="6">
         <v>200000</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D131" s="6">
         <v>200000</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D132" s="6">
         <v>200000</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D133" s="6">
         <v>200000</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D134" s="6">
         <v>200000</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D135" s="6">
         <v>200000</v>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D136" s="6">
         <v>200000</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D137" s="6">
         <v>200000</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D138" s="6">
         <v>200000</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D139" s="6">
         <v>200000</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D140" s="6">
         <v>200000</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D141" s="6">
         <v>200000</v>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D142" s="6">
         <v>200000</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D143" s="6">
         <v>200000</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D144" s="6">
         <v>200000</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D145" s="6">
         <v>200000</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D146" s="6">
         <v>200000</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D147" s="6">
         <v>200000</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D148" s="6">
         <v>200000</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D149" s="6">
         <v>200000</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D150" s="6">
         <v>200000</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D151" s="6">
         <v>200000</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D152" s="6">
         <v>200000</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D153" s="6">
         <v>200000</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D154" s="6">
         <v>200000</v>
